--- a/language.xlsx
+++ b/language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,10 +15,13 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">go!$A$1:$I$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">java!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">python!$A$1:$I$29</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">python!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">java!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">python!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">java!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">python!$A$1:$I$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">python!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">go!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">go!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="102">
   <si>
     <t xml:space="preserve">测试项目</t>
   </si>
@@ -1868,7 +1871,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\／D\／YYYY"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1890,13 +1893,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1965,6 +1961,7 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1979,6 +1976,7 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2007,6 +2005,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -2143,7 +2142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2167,287 +2166,242 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF70AD47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF70AD47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -2557,16 +2511,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.38888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.31111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="50.8592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.48888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.5037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.7"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="52.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="17.5407407407407"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3114,7 +3068,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
@@ -3122,16 +3076,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.6518518518518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.5111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.91851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.11481481481482"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3812,7 +3766,7 @@
       <c r="I29" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I29"/>
+  <autoFilter ref="A1:I1"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="D2:D29"/>
@@ -3856,24 +3810,24 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.6518518518518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.5111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.91851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.11481481481482"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3905,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
         <v>72</v>
       </c>
@@ -3924,11 +3878,15 @@
       <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38"/>
       <c r="B3" s="39" t="s">
         <v>75</v>
@@ -3943,11 +3901,15 @@
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38"/>
       <c r="B4" s="39" t="s">
         <v>76</v>
@@ -3962,11 +3924,15 @@
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38"/>
       <c r="B5" s="39" t="s">
         <v>77</v>
@@ -3981,11 +3947,15 @@
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38"/>
       <c r="B6" s="39" t="s">
         <v>78</v>
@@ -4000,11 +3970,15 @@
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
         <v>79</v>
@@ -4019,11 +3993,15 @@
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38"/>
       <c r="B8" s="39" t="s">
         <v>80</v>
@@ -4038,11 +4016,15 @@
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
         <v>81</v>
@@ -4057,11 +4039,15 @@
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>82</v>
@@ -4076,11 +4062,15 @@
       <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>83</v>
@@ -4095,11 +4085,15 @@
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>84</v>
@@ -4114,11 +4108,15 @@
       <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>85</v>
@@ -4133,11 +4131,15 @@
       <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>86</v>
@@ -4152,11 +4154,15 @@
       <c r="F14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
         <v>87</v>
@@ -4171,11 +4177,15 @@
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" s="42" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="39" t="s">
         <v>88</v>
@@ -4190,222 +4200,270 @@
       <c r="F16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="40"/>
+      <c r="G16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" s="49" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I17" s="48"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42"/>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="43"/>
       <c r="B18" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46" t="s">
+      <c r="C18" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="47"/>
+      <c r="G18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I18" s="48"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42"/>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43"/>
       <c r="B19" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46" t="s">
+      <c r="C19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="47"/>
+      <c r="G19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I19" s="48"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42"/>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43"/>
       <c r="B20" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="47"/>
+      <c r="G20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43"/>
       <c r="B21" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46" t="s">
+      <c r="C21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="47"/>
+      <c r="G21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I21" s="48"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42"/>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="47"/>
+      <c r="G22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42"/>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="43"/>
       <c r="B23" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46" t="s">
+      <c r="C23" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="47"/>
+      <c r="G23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42"/>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="43"/>
       <c r="B24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46" t="s">
+      <c r="C24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="47"/>
+      <c r="G24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42"/>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43"/>
       <c r="B25" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46" t="s">
+      <c r="C25" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="47"/>
+      <c r="G25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I25" s="48"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42"/>
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="43"/>
       <c r="B26" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="47"/>
+      <c r="G26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42"/>
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="43"/>
       <c r="B27" s="50" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="52" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -4423,11 +4481,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H16" type="list">
-      <formula1>"Pass通过,Fail失败,PLS Select请选择"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G27" type="list">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>

--- a/language.xlsx
+++ b/language.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>测试项目</t>
   </si>
@@ -54,6 +54,244 @@
     <t>备注</t>
   </si>
   <si>
+    <t>OpenJDK</t>
+  </si>
+  <si>
+    <r>
+      <t>1 java8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否可以正常安装</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>openjdk-smoke.sh</t>
+  </si>
+  <si>
+    <t>谭礼清</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="1"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的版本信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="1"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译器的版本信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="1"/>
+      </rPr>
+      <t>javac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="1"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行编译好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="1"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序是否出错</t>
+    </r>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>1 安装nodejs</t>
+  </si>
+  <si>
+    <t>nodejs.sh</t>
+  </si>
+  <si>
+    <t>2查看版本信息</t>
+  </si>
+  <si>
+    <t>3 使用npm安装本地包</t>
+  </si>
+  <si>
+    <t>4列出本地包所在位置</t>
+  </si>
+  <si>
+    <t>5npm安装全局包</t>
+  </si>
+  <si>
+    <t>6列出全局包所在位置</t>
+  </si>
+  <si>
+    <t>7卸载本地包</t>
+  </si>
+  <si>
+    <t>8卸载全局包</t>
+  </si>
+  <si>
+    <t>9卸载nodejs</t>
+  </si>
+  <si>
+    <t>10异步读操作</t>
+  </si>
+  <si>
+    <t>11同步读操作</t>
+  </si>
+  <si>
+    <t>12获取文件的状态</t>
+  </si>
+  <si>
+    <t>13 nodejs写文件</t>
+  </si>
+  <si>
+    <t>14异步打开文件</t>
+  </si>
+  <si>
+    <t>15nodejs打开文件</t>
+  </si>
+  <si>
+    <t>16 nodejs删除文件</t>
+  </si>
+  <si>
+    <t>17nodejs创建目录</t>
+  </si>
+  <si>
+    <t>18nodejs读目录</t>
+  </si>
+  <si>
+    <t>19nodejs删除目录</t>
+  </si>
+  <si>
+    <t>javapackages-tools
+3.4.1</t>
+  </si>
+  <si>
+    <t>刘彩丽</t>
+  </si>
+  <si>
+    <t>findbugs
+2.0.3</t>
+  </si>
+  <si>
+    <t>jmeter
+3.2</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查是否已安装</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -61,612 +299,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OpenJDK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1 java8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否可以正常安装</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>openjdk-smoke.sh</t>
-  </si>
-  <si>
-    <t>谭礼清</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的版本信息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编译器的版本信息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>javac</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>源码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行编译好的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="1"/>
-      </rPr>
-      <t>java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>程序是否出错</t>
-    </r>
-  </si>
-  <si>
-    <t>48.Node.js</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nodejs</t>
-    </r>
-  </si>
-  <si>
-    <t>nodejs.sh</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看版本信息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>npm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装本地包</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列出本地包所在位置</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5npm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装全局包</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列出全局包所在位置</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卸载本地包</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卸载全局包</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卸载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nodejs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异步读操作</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同步读操作</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取文件的状态</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13 nodejs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>写文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异步打开文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15nodejs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16 nodejs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17nodejs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建目录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18nodejs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读目录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19nodejs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除目录</t>
-    </r>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查是否已安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>python,</t>
     </r>
     <r>
@@ -681,9 +313,6 @@
   </si>
   <si>
     <t>python.sh</t>
-  </si>
-  <si>
-    <t>刘彩丽</t>
   </si>
   <si>
     <r>
@@ -1697,12 +1326,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1795,21 +1424,57 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,20 +1492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1852,6 +1503,20 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1872,36 +1537,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1917,6 +1574,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1939,21 +1611,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1980,6 +1659,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1992,37 +1689,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,7 +1731,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,43 +1809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,72 +1845,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2309,50 +2000,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2374,33 +2050,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2420,175 +2089,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -2732,48 +2384,67 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="4" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="7" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3216,17 +2887,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5407407407407" style="5"/>
+    <col min="1" max="1" width="17.5407407407407" style="49"/>
     <col min="2" max="2" width="24.2" style="5"/>
     <col min="3" max="3" width="5.48888888888889" style="5"/>
     <col min="4" max="4" width="17.5407407407407" style="4"/>
@@ -3239,593 +2910,648 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="F2" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="54" t="s">
+      <c r="C4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="55" t="s">
+      <c r="F4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="54" t="s">
+      <c r="C5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="55" t="s">
+      <c r="F5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="54" t="s">
+      <c r="C6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="55" t="s">
+      <c r="F6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="59"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="51"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="54" t="s">
+      <c r="C8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="55" t="s">
+      <c r="F8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="59"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="51"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="54" t="s">
+      <c r="C9" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="55" t="s">
+      <c r="F9" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="54" t="s">
+      <c r="C10" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="55" t="s">
+      <c r="F10" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="54" t="s">
+      <c r="C11" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="59"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="51"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="54" t="s">
+      <c r="C12" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="55" t="s">
+      <c r="F12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="51"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="54" t="s">
+      <c r="C13" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="59"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="51"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="54" t="s">
+      <c r="C14" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="55" t="s">
+      <c r="F14" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="51"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="54" t="s">
+      <c r="C15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="55" t="s">
+      <c r="F15" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="51"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="54" t="s">
+      <c r="C16" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="51"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="54" t="s">
+      <c r="C17" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="55" t="s">
+      <c r="F17" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="54" t="s">
+      <c r="C18" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="55" t="s">
+      <c r="F18" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="54" t="s">
+      <c r="C19" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="55" t="s">
+      <c r="F19" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="59"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="51"/>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="54" t="s">
+      <c r="C20" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="55" t="s">
+      <c r="F20" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="59"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="51"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="54" t="s">
+      <c r="C21" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="55" t="s">
+      <c r="F21" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="51"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="54" t="s">
+      <c r="C22" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="55" t="s">
+      <c r="F22" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="59"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="51"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="54" t="s">
+      <c r="C23" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="55" t="s">
+      <c r="F23" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="59"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="51"/>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="54" t="s">
+      <c r="C24" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="55" t="s">
+      <c r="F24" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="51"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="56" t="s">
+      <c r="C25" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="57" t="s">
+      <c r="F25" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="60"/>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" s="47" customFormat="1" ht="24" spans="1:9">
+      <c r="A26" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="65"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" s="48" customFormat="1" ht="24" spans="1:9">
+      <c r="A27" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+    </row>
+    <row r="28" s="47" customFormat="1" ht="24" spans="1:9">
+      <c r="A28" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="65"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I25"/>
@@ -3835,7 +3561,7 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D25"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G25">
+  <conditionalFormatting sqref="G2:G28">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3845,10 +3571,10 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H25"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24 G25:G28">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F25">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F24 F25:F28">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3856,7 +3582,7 @@
     <hyperlink ref="D2" r:id="rId1" display="openjdk-smoke.sh"/>
     <hyperlink ref="D7" r:id="rId2" display="nodejs.sh"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -3918,19 +3644,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>14</v>
@@ -3939,21 +3665,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="45"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>14</v>
@@ -3962,21 +3688,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="45"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>14</v>
@@ -3985,21 +3711,21 @@
         <v>15</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="45"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>14</v>
@@ -4008,21 +3734,21 @@
         <v>15</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="45"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="36"/>
       <c r="B6" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>14</v>
@@ -4031,21 +3757,21 @@
         <v>15</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="45"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="36"/>
       <c r="B7" s="37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>14</v>
@@ -4054,21 +3780,21 @@
         <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="45"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>14</v>
@@ -4077,21 +3803,21 @@
         <v>15</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" s="45"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="36"/>
       <c r="B9" s="37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>14</v>
@@ -4100,21 +3826,21 @@
         <v>15</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="45"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>14</v>
@@ -4123,21 +3849,21 @@
         <v>15</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="45"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="36"/>
       <c r="B11" s="37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>14</v>
@@ -4146,21 +3872,21 @@
         <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="45"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>14</v>
@@ -4169,21 +3895,21 @@
         <v>15</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="45"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>14</v>
@@ -4192,21 +3918,21 @@
         <v>15</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="45"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>14</v>
@@ -4215,21 +3941,21 @@
         <v>15</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="45"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="36"/>
       <c r="B15" s="37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>14</v>
@@ -4238,21 +3964,21 @@
         <v>15</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="45"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="36"/>
       <c r="B16" s="37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>14</v>
@@ -4261,21 +3987,21 @@
         <v>15</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" s="45"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="36"/>
       <c r="B17" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>14</v>
@@ -4284,21 +4010,21 @@
         <v>15</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" s="45"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="36"/>
       <c r="B18" s="37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>14</v>
@@ -4307,21 +4033,21 @@
         <v>15</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" s="45"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="36"/>
       <c r="B19" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>14</v>
@@ -4330,21 +4056,21 @@
         <v>15</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="45"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>14</v>
@@ -4353,21 +4079,21 @@
         <v>15</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="45"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>14</v>
@@ -4376,21 +4102,21 @@
         <v>15</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="45"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>14</v>
@@ -4399,21 +4125,21 @@
         <v>15</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="45"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="36"/>
       <c r="B23" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>14</v>
@@ -4422,21 +4148,21 @@
         <v>15</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I23" s="45"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="36"/>
       <c r="B24" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>14</v>
@@ -4445,21 +4171,21 @@
         <v>15</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="45"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>14</v>
@@ -4468,21 +4194,21 @@
         <v>15</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="45"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>14</v>
@@ -4491,21 +4217,21 @@
         <v>15</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I26" s="45"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>14</v>
@@ -4514,21 +4240,21 @@
         <v>15</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" s="45"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>14</v>
@@ -4537,21 +4263,21 @@
         <v>15</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I28" s="45"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="38"/>
       <c r="B29" s="39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>14</v>
@@ -4560,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -4589,7 +4315,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="python.sh"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4603,7 +4329,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4651,19 +4377,19 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>14</v>
@@ -4672,21 +4398,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="33"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>14</v>
@@ -4695,21 +4421,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="33"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>14</v>
@@ -4718,21 +4444,21 @@
         <v>15</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="33"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>14</v>
@@ -4741,21 +4467,21 @@
         <v>15</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="33"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>14</v>
@@ -4764,21 +4490,21 @@
         <v>15</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="33"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>14</v>
@@ -4787,21 +4513,21 @@
         <v>15</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="33"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>14</v>
@@ -4810,21 +4536,21 @@
         <v>15</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" s="33"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>14</v>
@@ -4833,21 +4559,21 @@
         <v>15</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="33"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>14</v>
@@ -4856,21 +4582,21 @@
         <v>15</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="33"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>14</v>
@@ -4879,21 +4605,21 @@
         <v>15</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="33"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>14</v>
@@ -4902,21 +4628,21 @@
         <v>15</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="33"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>14</v>
@@ -4925,21 +4651,21 @@
         <v>15</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="33"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>14</v>
@@ -4948,21 +4674,21 @@
         <v>15</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="33"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>14</v>
@@ -4971,21 +4697,21 @@
         <v>15</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="33"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>14</v>
@@ -4994,25 +4720,25 @@
         <v>15</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" s="33"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A17" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>14</v>
@@ -5021,21 +4747,21 @@
         <v>15</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>14</v>
@@ -5044,21 +4770,21 @@
         <v>15</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14"/>
       <c r="B19" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>14</v>
@@ -5067,21 +4793,21 @@
         <v>15</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="14"/>
       <c r="B20" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>14</v>
@@ -5090,21 +4816,21 @@
         <v>15</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="14"/>
       <c r="B21" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>14</v>
@@ -5113,21 +4839,21 @@
         <v>15</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="14"/>
       <c r="B22" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>14</v>
@@ -5136,21 +4862,21 @@
         <v>15</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="14"/>
       <c r="B23" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>14</v>
@@ -5159,21 +4885,21 @@
         <v>15</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="14"/>
       <c r="B24" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>14</v>
@@ -5182,21 +4908,21 @@
         <v>15</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>14</v>
@@ -5205,21 +4931,21 @@
         <v>15</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="14"/>
       <c r="B26" s="18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>14</v>
@@ -5228,21 +4954,21 @@
         <v>15</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I26" s="34"/>
     </row>
     <row r="27" ht="15.75" spans="1:9">
       <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
@@ -5251,7 +4977,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" s="35"/>
     </row>
@@ -5283,7 +5009,7 @@
     <hyperlink ref="D2" r:id="rId1" display="golang.sh"/>
     <hyperlink ref="D17" r:id="rId2" display="go-bindata.sh"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
